--- a/_analysis/Depth-Mapping/_dat/Logger Summary.xlsx
+++ b/_analysis/Depth-Mapping/_dat/Logger Summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victoria Starnes\Documents\MSU\Proposal\Components\Loggers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victoria Starnes\Documents\GitHub\Bluff-Lake-Project\_analysis\Depth-Mapping\_dat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BE4B12-768F-4B85-A078-69E8FAB122EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8F3F2F-E9AF-489F-BCEC-9F1D5150DDAF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{C64EC215-6CE1-46CD-BAD1-2EACF9D70C3A}"/>
+    <workbookView xWindow="30" yWindow="0" windowWidth="20460" windowHeight="10920" xr2:uid="{C64EC215-6CE1-46CD-BAD1-2EACF9D70C3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>Sonde Number</t>
   </si>
@@ -68,9 +68,6 @@
     <t>notes</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>Logging interval</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
     <t>New</t>
   </si>
   <si>
-    <t>1min</t>
-  </si>
-  <si>
     <t>Bluff Lake Baro</t>
   </si>
   <si>
@@ -108,6 +102,15 @@
   </si>
   <si>
     <t>bad cap, strange color on sensor, power reset, issues connecting</t>
+  </si>
+  <si>
+    <t>Baro</t>
+  </si>
+  <si>
+    <t>Cypress</t>
+  </si>
+  <si>
+    <t>Gauge</t>
   </si>
 </sst>
 </file>
@@ -143,10 +146,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A70250-E807-4561-B782-4439B4849A41}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,168 +506,183 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.48194444444444445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>10868628</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1">
+        <v>43589</v>
+      </c>
+      <c r="E19" s="1">
+        <v>43249</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20089579</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1">
+        <v>43589</v>
+      </c>
+      <c r="E20" s="1">
+        <v>43815</v>
+      </c>
+      <c r="G20" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="H20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>10868631</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1">
+        <v>43589</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>10868629</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B22" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C22" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D22" s="1">
         <v>43589</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="E22" s="1"/>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>230089578</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1">
+        <v>43589</v>
+      </c>
+      <c r="H23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>10868630</v>
+      </c>
+      <c r="B24" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1">
-        <v>43589</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="1">
+        <v>43590</v>
+      </c>
+      <c r="E24" s="1">
+        <v>43484</v>
+      </c>
+      <c r="F24" s="2">
+        <v>43590.625</v>
+      </c>
+      <c r="H24" t="s">
         <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>10868630</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="1">
-        <v>43590</v>
-      </c>
-      <c r="E5" s="1">
-        <v>43484</v>
-      </c>
-      <c r="F5" s="2">
-        <v>43590.625</v>
-      </c>
-      <c r="H5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>10868628</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1">
-        <v>43589</v>
-      </c>
-      <c r="E10" s="1">
-        <v>43249</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>20089579</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1">
-        <v>43589</v>
-      </c>
-      <c r="E11" s="1">
-        <v>43815</v>
-      </c>
-      <c r="G11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10868631</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1">
-        <v>43589</v>
-      </c>
-      <c r="G12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
